--- a/tests/indicators/a-d/Alligator/Alligator.Calc.xlsx
+++ b/tests/indicators/a-d/Alligator/Alligator.Calc.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B43BA7-A003-4C72-8D2E-F418EC1FCC90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD0369-4F61-4D19-8C54-2B72636883CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alligator" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -19,9 +29,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>index</t>
   </si>
   <si>
     <t>Jaw (13, 8)</t>
@@ -52,6 +59,9 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -887,7 +897,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="11" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{17A710D7-7854-44A7-8518-D78D98C39A80}" name="high" dataDxfId="9" dataCellStyle="Currency"/>
     <tableColumn id="10" xr3:uid="{F0413E1D-8F64-4793-9A00-A7FC252CB31D}" name="low" dataDxfId="8" dataCellStyle="Currency"/>
@@ -1221,7 +1231,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1236,48 +1246,48 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>42738</v>
@@ -1302,7 +1312,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>42739</v>
@@ -1327,7 +1337,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>42740</v>
@@ -1352,7 +1362,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>42741</v>
@@ -1377,7 +1387,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>42744</v>
@@ -1404,7 +1414,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>42745</v>
@@ -1431,7 +1441,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>42746</v>
@@ -1458,7 +1468,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>42747</v>
@@ -1490,7 +1500,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>42748</v>
@@ -1522,7 +1532,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>42752</v>
@@ -1554,7 +1564,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>42753</v>
@@ -1586,7 +1596,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>42754</v>
@@ -1618,7 +1628,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>42755</v>
@@ -1655,7 +1665,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>42758</v>
@@ -1692,7 +1702,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>42759</v>
@@ -1729,7 +1739,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>42760</v>
@@ -1766,7 +1776,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>42761</v>
@@ -1803,7 +1813,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>42762</v>
@@ -1840,7 +1850,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>42765</v>
@@ -1877,7 +1887,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>42766</v>
@@ -1914,7 +1924,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>42767</v>
@@ -1956,7 +1966,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>42768</v>
@@ -1998,7 +2008,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>42769</v>
@@ -2040,7 +2050,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>42772</v>
@@ -2082,7 +2092,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>42773</v>
@@ -2124,7 +2134,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>42774</v>
@@ -2166,7 +2176,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>42775</v>
@@ -2208,7 +2218,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>42776</v>
@@ -2250,7 +2260,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>42779</v>
@@ -2292,7 +2302,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>42780</v>
@@ -2334,7 +2344,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>42781</v>
@@ -2376,7 +2386,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>42782</v>
@@ -2418,7 +2428,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>42783</v>
@@ -2460,7 +2470,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>42787</v>
@@ -2502,7 +2512,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>42788</v>
@@ -2544,7 +2554,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>42789</v>
@@ -2586,7 +2596,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>42790</v>
@@ -2628,7 +2638,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>42793</v>
@@ -2670,7 +2680,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>42794</v>
@@ -2712,7 +2722,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>42795</v>
@@ -2754,7 +2764,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>42796</v>
@@ -2796,7 +2806,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>42797</v>
@@ -2838,7 +2848,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>42800</v>
@@ -2880,7 +2890,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>42801</v>
@@ -2922,7 +2932,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>42802</v>
@@ -2964,7 +2974,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>42803</v>
@@ -3006,7 +3016,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>42804</v>
@@ -3048,7 +3058,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>42807</v>
@@ -3090,7 +3100,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>42808</v>
@@ -3132,7 +3142,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>42809</v>
@@ -3174,7 +3184,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>42810</v>
@@ -3216,7 +3226,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>42811</v>
@@ -3258,7 +3268,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>42814</v>
@@ -3300,7 +3310,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>42815</v>
@@ -3342,7 +3352,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>42816</v>
@@ -3384,7 +3394,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>42817</v>
@@ -3426,7 +3436,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>42818</v>
@@ -3468,7 +3478,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>42821</v>
@@ -3510,7 +3520,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>42822</v>
@@ -3552,7 +3562,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>42823</v>
@@ -3594,7 +3604,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>42824</v>
@@ -3636,7 +3646,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>42825</v>
@@ -3678,7 +3688,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>42828</v>
@@ -3720,7 +3730,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>42829</v>
@@ -3762,7 +3772,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>42830</v>
@@ -3804,7 +3814,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>42831</v>
@@ -3846,7 +3856,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>42832</v>
@@ -3888,7 +3898,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>42835</v>
@@ -3930,7 +3940,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>42836</v>
@@ -3972,7 +3982,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>42837</v>
@@ -4014,7 +4024,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>42838</v>
@@ -4056,7 +4066,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>42842</v>
@@ -4098,7 +4108,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>42843</v>
@@ -4140,7 +4150,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>42844</v>
@@ -4182,7 +4192,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>42845</v>
@@ -4224,7 +4234,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>42846</v>
@@ -4266,7 +4276,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>42849</v>
@@ -4308,7 +4318,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>42850</v>
@@ -4350,7 +4360,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>42851</v>
@@ -4392,7 +4402,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>42852</v>
@@ -4434,7 +4444,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>42853</v>
@@ -4476,7 +4486,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>42856</v>
@@ -4518,7 +4528,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>42857</v>
@@ -4560,7 +4570,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <v>42858</v>
@@ -4602,7 +4612,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <v>42859</v>
@@ -4644,7 +4654,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <v>42860</v>
@@ -4686,7 +4696,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <v>42863</v>
@@ -4728,7 +4738,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <v>42864</v>
@@ -4770,7 +4780,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>42865</v>
@@ -4812,7 +4822,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>42866</v>
@@ -4854,7 +4864,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
         <v>42867</v>
@@ -4896,7 +4906,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <v>42870</v>
@@ -4938,7 +4948,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <v>42871</v>
@@ -4980,7 +4990,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>42872</v>
@@ -5022,7 +5032,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <v>42873</v>
@@ -5064,7 +5074,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
         <v>42874</v>
@@ -5106,7 +5116,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>42877</v>
@@ -5148,7 +5158,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
         <v>42878</v>
@@ -5190,7 +5200,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <v>42879</v>
@@ -5232,7 +5242,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>42880</v>
@@ -5274,7 +5284,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>42881</v>
@@ -5316,7 +5326,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <v>42885</v>
@@ -5358,7 +5368,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <v>42886</v>
@@ -5400,7 +5410,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>42887</v>
@@ -5442,7 +5452,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>42888</v>
@@ -5484,7 +5494,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <v>42891</v>
@@ -5526,7 +5536,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <v>42892</v>
@@ -5568,7 +5578,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <v>42893</v>
@@ -5610,7 +5620,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>42894</v>
@@ -5652,7 +5662,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <v>42895</v>
@@ -5694,7 +5704,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <v>42898</v>
@@ -5736,7 +5746,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <v>42899</v>
@@ -5778,7 +5788,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <v>42900</v>
@@ -5820,7 +5830,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <v>42901</v>
@@ -5862,7 +5872,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <v>42902</v>
@@ -5904,7 +5914,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <v>42905</v>
@@ -5946,7 +5956,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <v>42906</v>
@@ -5988,7 +5998,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <v>42907</v>
@@ -6030,7 +6040,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <v>42908</v>
@@ -6072,7 +6082,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <v>42909</v>
@@ -6114,7 +6124,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <v>42912</v>
@@ -6156,7 +6166,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <v>42913</v>
@@ -6198,7 +6208,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <v>42914</v>
@@ -6240,7 +6250,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <v>42915</v>
@@ -6282,7 +6292,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <v>42916</v>
@@ -6324,7 +6334,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <v>42919</v>
@@ -6366,7 +6376,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <v>42921</v>
@@ -6408,7 +6418,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <v>42922</v>
@@ -6450,7 +6460,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <v>42923</v>
@@ -6492,7 +6502,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <v>42926</v>
@@ -6534,7 +6544,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
         <v>42927</v>
@@ -6576,7 +6586,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>42928</v>
@@ -6618,7 +6628,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <v>42929</v>
@@ -6660,7 +6670,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <v>42930</v>
@@ -6702,7 +6712,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <v>42933</v>
@@ -6744,7 +6754,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <v>42934</v>
@@ -6786,7 +6796,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>42935</v>
@@ -6828,7 +6838,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <v>42936</v>
@@ -6870,7 +6880,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <v>42937</v>
@@ -6912,7 +6922,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <v>42940</v>
@@ -6954,7 +6964,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <v>42941</v>
@@ -6996,7 +7006,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <v>42942</v>
@@ -7038,7 +7048,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <v>42943</v>
@@ -7080,7 +7090,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <v>42944</v>
@@ -7122,7 +7132,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <v>42947</v>
@@ -7164,7 +7174,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <v>42948</v>
@@ -7206,7 +7216,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <v>42949</v>
@@ -7248,7 +7258,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <v>42950</v>
@@ -7290,7 +7300,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <v>42951</v>
@@ -7332,7 +7342,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <v>42954</v>
@@ -7374,7 +7384,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <v>42955</v>
@@ -7416,7 +7426,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <v>42956</v>
@@ -7458,7 +7468,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <v>42957</v>
@@ -7500,7 +7510,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <v>42958</v>
@@ -7542,7 +7552,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <v>42961</v>
@@ -7584,7 +7594,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <v>42962</v>
@@ -7626,7 +7636,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>42963</v>
@@ -7668,7 +7678,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <v>42964</v>
@@ -7710,7 +7720,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <v>42965</v>
@@ -7752,7 +7762,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <v>42968</v>
@@ -7794,7 +7804,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <v>42969</v>
@@ -7836,7 +7846,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <v>42970</v>
@@ -7878,7 +7888,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <v>42971</v>
@@ -7920,7 +7930,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <v>42972</v>
@@ -7962,7 +7972,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <v>42975</v>
@@ -8004,7 +8014,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <v>42976</v>
@@ -8046,7 +8056,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <v>42977</v>
@@ -8088,7 +8098,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <v>42978</v>
@@ -8130,7 +8140,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <v>42979</v>
@@ -8172,7 +8182,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <v>42983</v>
@@ -8214,7 +8224,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <v>42984</v>
@@ -8256,7 +8266,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <v>42985</v>
@@ -8298,7 +8308,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <v>42986</v>
@@ -8340,7 +8350,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <v>42989</v>
@@ -8382,7 +8392,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <v>42990</v>
@@ -8424,7 +8434,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <v>42991</v>
@@ -8466,7 +8476,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <v>42992</v>
@@ -8508,7 +8518,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <v>42993</v>
@@ -8550,7 +8560,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <v>42996</v>
@@ -8592,7 +8602,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <v>42997</v>
@@ -8634,7 +8644,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <v>42998</v>
@@ -8676,7 +8686,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <v>42999</v>
@@ -8718,7 +8728,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <v>43000</v>
@@ -8760,7 +8770,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <v>43003</v>
@@ -8802,7 +8812,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <v>43004</v>
@@ -8844,7 +8854,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <v>43005</v>
@@ -8886,7 +8896,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <v>43006</v>
@@ -8928,7 +8938,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <v>43007</v>
@@ -8970,7 +8980,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <v>43010</v>
@@ -9012,7 +9022,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <v>43011</v>
@@ -9054,7 +9064,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <v>43012</v>
@@ -9096,7 +9106,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <v>43013</v>
@@ -9138,7 +9148,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <v>43014</v>
@@ -9180,7 +9190,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <v>43017</v>
@@ -9222,7 +9232,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2">
         <v>43018</v>
@@ -9264,7 +9274,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <v>43019</v>
@@ -9306,7 +9316,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <v>43020</v>
@@ -9348,7 +9358,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <v>43021</v>
@@ -9390,7 +9400,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <v>43024</v>
@@ -9432,7 +9442,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <v>43025</v>
@@ -9474,7 +9484,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <v>43026</v>
@@ -9516,7 +9526,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <v>43027</v>
@@ -9558,7 +9568,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>43028</v>
@@ -9600,7 +9610,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>43031</v>
@@ -9642,7 +9652,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>43032</v>
@@ -9684,7 +9694,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>43033</v>
@@ -9726,7 +9736,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>43034</v>
@@ -9768,7 +9778,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>43035</v>
@@ -9810,7 +9820,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>43038</v>
@@ -9852,7 +9862,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>43039</v>
@@ -9894,7 +9904,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>43040</v>
@@ -9936,7 +9946,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>43041</v>
@@ -9978,7 +9988,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>43042</v>
@@ -10020,7 +10030,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>43045</v>
@@ -10062,7 +10072,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>43046</v>
@@ -10104,7 +10114,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>43047</v>
@@ -10146,7 +10156,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>43048</v>
@@ -10188,7 +10198,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>43049</v>
@@ -10230,7 +10240,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>43052</v>
@@ -10272,7 +10282,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>43053</v>
@@ -10314,7 +10324,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>43054</v>
@@ -10356,7 +10366,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <v>43055</v>
@@ -10398,7 +10408,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>43056</v>
@@ -10440,7 +10450,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>43059</v>
@@ -10482,7 +10492,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>43060</v>
@@ -10524,7 +10534,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>43061</v>
@@ -10566,7 +10576,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <v>43063</v>
@@ -10608,7 +10618,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>43066</v>
@@ -10650,7 +10660,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>43067</v>
@@ -10692,7 +10702,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>43068</v>
@@ -10734,7 +10744,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>43069</v>
@@ -10776,7 +10786,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>43070</v>
@@ -10818,7 +10828,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>43073</v>
@@ -10860,7 +10870,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>43074</v>
@@ -10902,7 +10912,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <v>43075</v>
@@ -10944,7 +10954,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>43076</v>
@@ -10986,7 +10996,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>43077</v>
@@ -11028,7 +11038,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>43080</v>
@@ -11070,7 +11080,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>43081</v>
@@ -11112,7 +11122,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>43082</v>
@@ -11154,7 +11164,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>43083</v>
@@ -11196,7 +11206,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>43084</v>
@@ -11238,7 +11248,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>43087</v>
@@ -11280,7 +11290,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>43088</v>
@@ -11322,7 +11332,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>43089</v>
@@ -11364,7 +11374,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>43090</v>
@@ -11406,7 +11416,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>43091</v>
@@ -11448,7 +11458,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <v>43095</v>
@@ -11490,7 +11500,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <v>43096</v>
@@ -11532,7 +11542,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>43097</v>
@@ -11574,7 +11584,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>43098</v>
@@ -11616,7 +11626,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>43102</v>
@@ -11658,7 +11668,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>43103</v>
@@ -11700,7 +11710,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>43104</v>
@@ -11742,7 +11752,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>43105</v>
@@ -11784,7 +11794,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>43108</v>
@@ -11826,7 +11836,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <v>43109</v>
@@ -11868,7 +11878,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <v>43110</v>
@@ -11910,7 +11920,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>43111</v>
@@ -11952,7 +11962,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>43112</v>
@@ -11994,7 +12004,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>43116</v>
@@ -12036,7 +12046,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>43117</v>
@@ -12078,7 +12088,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>43118</v>
@@ -12120,7 +12130,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>43119</v>
@@ -12162,7 +12172,7 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>43122</v>
@@ -12204,7 +12214,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>43123</v>
@@ -12246,7 +12256,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <v>43124</v>
@@ -12288,7 +12298,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>43125</v>
@@ -12330,7 +12340,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>43126</v>
@@ -12372,7 +12382,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>43129</v>
@@ -12414,7 +12424,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>43130</v>
@@ -12456,7 +12466,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>43131</v>
@@ -12498,7 +12508,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>43132</v>
@@ -12540,7 +12550,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>43133</v>
@@ -12582,7 +12592,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>43136</v>
@@ -12624,7 +12634,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>43137</v>
@@ -12666,7 +12676,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>43138</v>
@@ -12708,7 +12718,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>43139</v>
@@ -12750,7 +12760,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>43140</v>
@@ -12792,7 +12802,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>43143</v>
@@ -12834,7 +12844,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>43144</v>
@@ -12876,7 +12886,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>43145</v>
@@ -12918,7 +12928,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>43146</v>
@@ -12960,7 +12970,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>43147</v>
@@ -13002,7 +13012,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>43151</v>
@@ -13044,7 +13054,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>43152</v>
@@ -13086,7 +13096,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>43153</v>
@@ -13128,7 +13138,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>43154</v>
@@ -13170,7 +13180,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>43157</v>
@@ -13212,7 +13222,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>43158</v>
@@ -13254,7 +13264,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>43159</v>
@@ -13296,7 +13306,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>43160</v>
@@ -13338,7 +13348,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>43161</v>
@@ -13380,7 +13390,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>43164</v>
@@ -13422,7 +13432,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>43165</v>
@@ -13464,7 +13474,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>43166</v>
@@ -13506,7 +13516,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>43167</v>
@@ -13548,7 +13558,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>43168</v>
@@ -13590,7 +13600,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>43171</v>
@@ -13632,7 +13642,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>43172</v>
@@ -13674,7 +13684,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>43173</v>
@@ -13716,7 +13726,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>43174</v>
@@ -13758,7 +13768,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>43175</v>
@@ -13800,7 +13810,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>43178</v>
@@ -13842,7 +13852,7 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>43179</v>
@@ -13884,7 +13894,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>43180</v>
@@ -13926,7 +13936,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>43181</v>
@@ -13968,7 +13978,7 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>43182</v>
@@ -14010,7 +14020,7 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>43185</v>
@@ -14052,7 +14062,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>43186</v>
@@ -14094,7 +14104,7 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>43187</v>
@@ -14136,7 +14146,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>43188</v>
@@ -14178,7 +14188,7 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <v>43192</v>
@@ -14220,7 +14230,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <v>43193</v>
@@ -14262,7 +14272,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <v>43194</v>
@@ -14304,7 +14314,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <v>43195</v>
@@ -14346,7 +14356,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <v>43196</v>
@@ -14388,7 +14398,7 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <v>43199</v>
@@ -14430,7 +14440,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <v>43200</v>
@@ -14472,7 +14482,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <v>43201</v>
@@ -14514,7 +14524,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <v>43202</v>
@@ -14556,7 +14566,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <v>43203</v>
@@ -14598,7 +14608,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
         <v>43206</v>
@@ -14640,7 +14650,7 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <v>43207</v>
@@ -14682,7 +14692,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <v>43208</v>
@@ -14724,7 +14734,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <v>43209</v>
@@ -14766,7 +14776,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <v>43210</v>
@@ -14808,7 +14818,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <v>43213</v>
@@ -14850,7 +14860,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <v>43214</v>
@@ -14892,7 +14902,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <v>43215</v>
@@ -14934,7 +14944,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <v>43216</v>
@@ -14976,7 +14986,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <v>43217</v>
@@ -15018,7 +15028,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <v>43220</v>
@@ -15060,7 +15070,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <v>43221</v>
@@ -15102,7 +15112,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <v>43222</v>
@@ -15144,7 +15154,7 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <v>43223</v>
@@ -15186,7 +15196,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <v>43224</v>
@@ -15228,7 +15238,7 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <v>43227</v>
@@ -15270,7 +15280,7 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <v>43228</v>
@@ -15312,7 +15322,7 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <v>43229</v>
@@ -15354,7 +15364,7 @@
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <v>43230</v>
@@ -15396,7 +15406,7 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <v>43231</v>
@@ -15438,7 +15448,7 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <v>43234</v>
@@ -15480,7 +15490,7 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <v>43235</v>
@@ -15522,7 +15532,7 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <v>43236</v>
@@ -15564,7 +15574,7 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <v>43237</v>
@@ -15606,7 +15616,7 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <v>43238</v>
@@ -15648,7 +15658,7 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <v>43241</v>
@@ -15690,7 +15700,7 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <v>43242</v>
@@ -15732,7 +15742,7 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <v>43243</v>
@@ -15774,7 +15784,7 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <v>43244</v>
@@ -15816,7 +15826,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <v>43245</v>
@@ -15858,7 +15868,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <v>43249</v>
@@ -15900,7 +15910,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2">
         <v>43250</v>
@@ -15942,7 +15952,7 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2">
         <v>43251</v>
@@ -15984,7 +15994,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2">
         <v>43252</v>
@@ -16026,7 +16036,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2">
         <v>43255</v>
@@ -16068,7 +16078,7 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2">
         <v>43256</v>
@@ -16110,7 +16120,7 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2">
         <v>43257</v>
@@ -16152,7 +16162,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2">
         <v>43258</v>
@@ -16194,7 +16204,7 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2">
         <v>43259</v>
@@ -16236,7 +16246,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2">
         <v>43262</v>
@@ -16278,7 +16288,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2">
         <v>43263</v>
@@ -16320,7 +16330,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2">
         <v>43264</v>
@@ -16362,7 +16372,7 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2">
         <v>43265</v>
@@ -16404,7 +16414,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2">
         <v>43266</v>
@@ -16446,7 +16456,7 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2">
         <v>43269</v>
@@ -16488,7 +16498,7 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2">
         <v>43270</v>
@@ -16530,7 +16540,7 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2">
         <v>43271</v>
@@ -16572,7 +16582,7 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2">
         <v>43272</v>
@@ -16614,7 +16624,7 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2">
         <v>43273</v>
@@ -16656,7 +16666,7 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2">
         <v>43276</v>
@@ -16698,7 +16708,7 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2">
         <v>43277</v>
@@ -16740,7 +16750,7 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2">
         <v>43278</v>
@@ -16782,7 +16792,7 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2">
         <v>43279</v>
@@ -16824,7 +16834,7 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2">
         <v>43280</v>
@@ -16866,7 +16876,7 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2">
         <v>43283</v>
@@ -16908,7 +16918,7 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2">
         <v>43284</v>
@@ -16950,7 +16960,7 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2">
         <v>43286</v>
@@ -16992,7 +17002,7 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2">
         <v>43287</v>
@@ -17034,7 +17044,7 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="4">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2">
         <v>43290</v>
@@ -17076,7 +17086,7 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="4">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2">
         <v>43291</v>
@@ -17118,7 +17128,7 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="4">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2">
         <v>43292</v>
@@ -17160,7 +17170,7 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" s="4">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2">
         <v>43293</v>
@@ -17202,7 +17212,7 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" s="4">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2">
         <v>43294</v>
@@ -17244,7 +17254,7 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" s="4">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2">
         <v>43297</v>
@@ -17286,7 +17296,7 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" s="4">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2">
         <v>43298</v>
@@ -17328,7 +17338,7 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" s="4">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2">
         <v>43299</v>
@@ -17370,7 +17380,7 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" s="4">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2">
         <v>43300</v>
@@ -17412,7 +17422,7 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" s="4">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2">
         <v>43301</v>
@@ -17454,7 +17464,7 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" s="4">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2">
         <v>43304</v>
@@ -17496,7 +17506,7 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" s="4">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2">
         <v>43305</v>
@@ -17538,7 +17548,7 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="4">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2">
         <v>43306</v>
@@ -17580,7 +17590,7 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" s="4">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2">
         <v>43307</v>
@@ -17622,7 +17632,7 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" s="4">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2">
         <v>43308</v>
@@ -17664,7 +17674,7 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" s="4">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2">
         <v>43311</v>
@@ -17706,7 +17716,7 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" s="4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2">
         <v>43312</v>
@@ -17748,7 +17758,7 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" s="4">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2">
         <v>43313</v>
@@ -17790,7 +17800,7 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" s="4">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2">
         <v>43314</v>
@@ -17832,7 +17842,7 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" s="4">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2">
         <v>43315</v>
@@ -17874,7 +17884,7 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2">
         <v>43318</v>
@@ -17916,7 +17926,7 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" s="4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2">
         <v>43319</v>
@@ -17958,7 +17968,7 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2">
         <v>43320</v>
@@ -18000,7 +18010,7 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2">
         <v>43321</v>
@@ -18042,7 +18052,7 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2">
         <v>43322</v>
@@ -18084,7 +18094,7 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2">
         <v>43325</v>
@@ -18126,7 +18136,7 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2">
         <v>43326</v>
@@ -18168,7 +18178,7 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" s="4">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2">
         <v>43327</v>
@@ -18210,7 +18220,7 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2">
         <v>43328</v>
@@ -18252,7 +18262,7 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" s="4">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2">
         <v>43329</v>
@@ -18294,7 +18304,7 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" s="4">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2">
         <v>43332</v>
@@ -18336,7 +18346,7 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" s="4">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2">
         <v>43333</v>
@@ -18378,7 +18388,7 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" s="4">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2">
         <v>43334</v>
@@ -18420,7 +18430,7 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" s="4">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2">
         <v>43335</v>
@@ -18462,7 +18472,7 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="4">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2">
         <v>43336</v>
@@ -18504,7 +18514,7 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="4">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2">
         <v>43339</v>
@@ -18546,7 +18556,7 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="4">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2">
         <v>43340</v>
@@ -18588,7 +18598,7 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" s="4">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2">
         <v>43341</v>
@@ -18630,7 +18640,7 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="4">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2">
         <v>43342</v>
@@ -18672,7 +18682,7 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" s="4">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2">
         <v>43343</v>
@@ -18714,7 +18724,7 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" s="4">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="2">
         <v>43347</v>
@@ -18756,7 +18766,7 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" s="4">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="2">
         <v>43348</v>
@@ -18798,7 +18808,7 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" s="4">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="2">
         <v>43349</v>
@@ -18840,7 +18850,7 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" s="4">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="2">
         <v>43350</v>
@@ -18882,7 +18892,7 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" s="4">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="2">
         <v>43353</v>
@@ -18924,7 +18934,7 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" s="4">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="2">
         <v>43354</v>
@@ -18966,7 +18976,7 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" s="4">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="2">
         <v>43355</v>
@@ -19008,7 +19018,7 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" s="4">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="2">
         <v>43356</v>
@@ -19050,7 +19060,7 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" s="4">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="2">
         <v>43357</v>
@@ -19092,7 +19102,7 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" s="4">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="2">
         <v>43360</v>
@@ -19134,7 +19144,7 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" s="4">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="2">
         <v>43361</v>
@@ -19176,7 +19186,7 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="4">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="2">
         <v>43362</v>
@@ -19218,7 +19228,7 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="4">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="2">
         <v>43363</v>
@@ -19260,7 +19270,7 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" s="4">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="2">
         <v>43364</v>
@@ -19302,7 +19312,7 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" s="4">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="2">
         <v>43367</v>
@@ -19344,7 +19354,7 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" s="4">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="2">
         <v>43368</v>
@@ -19386,7 +19396,7 @@
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" s="4">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="2">
         <v>43369</v>
@@ -19428,7 +19438,7 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" s="4">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="2">
         <v>43370</v>
@@ -19470,7 +19480,7 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" s="4">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="2">
         <v>43371</v>
@@ -19512,7 +19522,7 @@
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" s="4">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="2">
         <v>43374</v>
@@ -19554,7 +19564,7 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" s="4">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="2">
         <v>43375</v>
@@ -19596,7 +19606,7 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" s="4">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="2">
         <v>43376</v>
@@ -19638,7 +19648,7 @@
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" s="4">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="2">
         <v>43377</v>
@@ -19680,7 +19690,7 @@
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" s="4">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="2">
         <v>43378</v>
@@ -19722,7 +19732,7 @@
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="4">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="2">
         <v>43381</v>
@@ -19764,7 +19774,7 @@
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="4">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="2">
         <v>43382</v>
@@ -19806,7 +19816,7 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" s="4">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="2">
         <v>43383</v>
@@ -19848,7 +19858,7 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" s="4">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="2">
         <v>43384</v>
@@ -19890,7 +19900,7 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" s="4">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="2">
         <v>43385</v>
@@ -19932,7 +19942,7 @@
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" s="4">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="2">
         <v>43388</v>
@@ -19974,7 +19984,7 @@
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" s="4">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="2">
         <v>43389</v>
@@ -20016,7 +20026,7 @@
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" s="4">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="2">
         <v>43390</v>
@@ -20058,7 +20068,7 @@
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" s="4">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="2">
         <v>43391</v>
@@ -20100,7 +20110,7 @@
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" s="4">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="2">
         <v>43392</v>
@@ -20142,7 +20152,7 @@
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" s="4">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="2">
         <v>43395</v>
@@ -20184,7 +20194,7 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" s="4">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="2">
         <v>43396</v>
@@ -20226,7 +20236,7 @@
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" s="4">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="2">
         <v>43397</v>
@@ -20250,7 +20260,7 @@
         <v>276.05086028590051</v>
       </c>
       <c r="H458" s="11">
-        <f t="shared" ref="H458:H521" si="21" xml:space="preserve"> (H457 *(5-1) + E455) / 5</f>
+        <f t="shared" ref="H458:H503" si="21" xml:space="preserve"> (H457 *(5-1) + E455) / 5</f>
         <v>272.72908822940826</v>
       </c>
       <c r="J458" s="2">
@@ -20268,7 +20278,7 @@
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" s="4">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="2">
         <v>43398</v>
@@ -20310,7 +20320,7 @@
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" s="4">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="2">
         <v>43399</v>
@@ -20352,7 +20362,7 @@
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" s="4">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="2">
         <v>43402</v>
@@ -20394,7 +20404,7 @@
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" s="4">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="2">
         <v>43403</v>
@@ -20436,7 +20446,7 @@
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" s="4">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="2">
         <v>43404</v>
@@ -20456,7 +20466,7 @@
         <v>276.67895059871995</v>
       </c>
       <c r="G463" s="11">
-        <f t="shared" ref="G463:G526" si="22" xml:space="preserve"> (G462 *(8-1) + E458) / 8</f>
+        <f t="shared" ref="G463:G503" si="22" xml:space="preserve"> (G462 *(8-1) + E458) / 8</f>
         <v>271.69283901443885</v>
       </c>
       <c r="H463" s="11">
@@ -20478,7 +20488,7 @@
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" s="4">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="2">
         <v>43405</v>
@@ -20520,7 +20530,7 @@
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" s="4">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="2">
         <v>43406</v>
@@ -20562,7 +20572,7 @@
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" s="4">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="2">
         <v>43409</v>
@@ -20604,7 +20614,7 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" s="4">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="2">
         <v>43410</v>
@@ -20646,7 +20656,7 @@
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" s="4">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="2">
         <v>43411</v>
@@ -20688,7 +20698,7 @@
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" s="4">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="2">
         <v>43412</v>
@@ -20730,7 +20740,7 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" s="4">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="2">
         <v>43413</v>
@@ -20772,7 +20782,7 @@
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" s="4">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="2">
         <v>43416</v>
@@ -20788,7 +20798,7 @@
         <v>268.05500000000001</v>
       </c>
       <c r="F471" s="8">
-        <f t="shared" ref="F471:F534" si="23" xml:space="preserve"> (F470 *(13 - 1) + E463) / 13</f>
+        <f t="shared" ref="F471:F503" si="23" xml:space="preserve"> (F470 *(13 - 1) + E463) / 13</f>
         <v>269.96927097350039</v>
       </c>
       <c r="G471" s="11">
@@ -20814,7 +20824,7 @@
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="4">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="2">
         <v>43417</v>
@@ -20856,7 +20866,7 @@
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" s="4">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="2">
         <v>43418</v>
@@ -20898,7 +20908,7 @@
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" s="4">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="2">
         <v>43419</v>
@@ -20940,7 +20950,7 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" s="4">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="2">
         <v>43420</v>
@@ -20982,7 +20992,7 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" s="4">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="2">
         <v>43423</v>
@@ -21024,7 +21034,7 @@
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" s="4">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="2">
         <v>43424</v>
@@ -21066,7 +21076,7 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" s="4">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="2">
         <v>43425</v>
@@ -21108,7 +21118,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" s="4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="2">
         <v>43427</v>
@@ -21150,7 +21160,7 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" s="4">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="2">
         <v>43430</v>
@@ -21192,7 +21202,7 @@
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="4">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="2">
         <v>43431</v>
@@ -21234,7 +21244,7 @@
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="4">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="2">
         <v>43432</v>
@@ -21276,7 +21286,7 @@
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" s="4">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="2">
         <v>43433</v>
@@ -21318,7 +21328,7 @@
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" s="4">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="2">
         <v>43434</v>
@@ -21360,7 +21370,7 @@
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" s="4">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="2">
         <v>43437</v>
@@ -21402,7 +21412,7 @@
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" s="4">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="2">
         <v>43438</v>
@@ -21444,7 +21454,7 @@
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" s="4">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="2">
         <v>43440</v>
@@ -21486,7 +21496,7 @@
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" s="4">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="2">
         <v>43441</v>
@@ -21528,7 +21538,7 @@
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" s="4">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="2">
         <v>43444</v>
@@ -21570,7 +21580,7 @@
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" s="4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="2">
         <v>43445</v>
@@ -21612,7 +21622,7 @@
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" s="4">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="2">
         <v>43446</v>
@@ -21654,7 +21664,7 @@
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" s="4">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="2">
         <v>43447</v>
@@ -21696,7 +21706,7 @@
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" s="4">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="2">
         <v>43448</v>
@@ -21738,7 +21748,7 @@
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" s="4">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="2">
         <v>43451</v>
@@ -21780,7 +21790,7 @@
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" s="4">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="2">
         <v>43452</v>
@@ -21822,7 +21832,7 @@
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" s="4">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2">
         <v>43453</v>
@@ -21864,7 +21874,7 @@
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" s="4">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="2">
         <v>43454</v>
@@ -21906,7 +21916,7 @@
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" s="4">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2">
         <v>43455</v>
@@ -21948,7 +21958,7 @@
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="4">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2">
         <v>43458</v>
@@ -21990,7 +22000,7 @@
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" s="4">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="2">
         <v>43460</v>
@@ -22032,7 +22042,7 @@
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" s="4">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="2">
         <v>43461</v>
@@ -22074,7 +22084,7 @@
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2">
         <v>43462</v>
@@ -22116,7 +22126,7 @@
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2">
         <v>43465</v>
